--- a/Module2/Onboarding/Examples/data.xlsx
+++ b/Module2/Onboarding/Examples/data.xlsx
@@ -454,8 +454,8 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101001D85B782F009BA4A8051764404D1F46A" ma:contentTypeVersion="15" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="ffdba96b6f9197e1655cf672c11b3396">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dfb62c77-32f9-4cef-8886-9e57b7381c9d" xmlns:ns3="4031e5ff-f3c5-423c-8fab-1d57f6a3be94" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f07ec83ab7397d92f7caf6e442d32b57" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101001D85B782F009BA4A8051764404D1F46A" ma:contentTypeVersion="17" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="aeb43e99c2d936b97eb387d5eb102981">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dfb62c77-32f9-4cef-8886-9e57b7381c9d" xmlns:ns3="4031e5ff-f3c5-423c-8fab-1d57f6a3be94" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7799380c5bffed07a89ef908f557d0dc" ns2:_="" ns3:_="">
     <xsd:import namespace="dfb62c77-32f9-4cef-8886-9e57b7381c9d"/>
     <xsd:import namespace="4031e5ff-f3c5-423c-8fab-1d57f6a3be94"/>
     <xsd:element name="properties">
@@ -478,6 +478,8 @@
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -547,6 +549,16 @@
     <xsd:element name="MediaServiceLocation" ma:index="20" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="24" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -723,7 +735,7 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27447231-125E-48B6-A070-4C229F34D6A1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{867CD1AD-1345-4435-B6E1-E96A6CCC9111}"/>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
